--- a/excel_data/demo.xlsx
+++ b/excel_data/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jiekouzidonnghua\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A17184A-F45E-4EC6-96AB-D146A07DC265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB02C0C-431B-453E-A096-2FF7A921A53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百度首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +76,18 @@
   </si>
   <si>
     <t>响应数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度首页状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度首页字段值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -467,23 +475,48 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B08EAB87-E5B4-4B06-AAB2-ECB14BA60E77}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{8ACD1596-F404-46AA-B9C8-BA50BCAA51A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>